--- a/Basepaws_Notes/Read_QC/PRJNA513845-eDNA/DADA2/Cutadapt-filtered_read_counts-with_sequencer.xlsx
+++ b/Basepaws_Notes/Read_QC/PRJNA513845-eDNA/DADA2/Cutadapt-filtered_read_counts-with_sequencer.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\eDNA\PRJNA513845-eDNA\DADA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{514B588B-CBDE-4728-B603-0F04F82D3788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B04FBF-6738-40F8-8DA9-6157F2D43136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2745" windowWidth="22260" windowHeight="12495"/>
+    <workbookView xWindow="1860" yWindow="2400" windowWidth="22260" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cutadapt-filtered_read_counts-w" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
   <si>
     <t>Sample</t>
   </si>
@@ -254,12 +254,156 @@
   </si>
   <si>
     <t>SRA Taxonomy Unclassified</t>
+  </si>
+  <si>
+    <t>SRR8423802</t>
+  </si>
+  <si>
+    <t>SRR8423877</t>
+  </si>
+  <si>
+    <t>SRR8423910</t>
+  </si>
+  <si>
+    <t>SRR8423872</t>
+  </si>
+  <si>
+    <t>SRR8423880</t>
+  </si>
+  <si>
+    <t>SRR8423893</t>
+  </si>
+  <si>
+    <t>SRR8423885</t>
+  </si>
+  <si>
+    <t>SRR8423883</t>
+  </si>
+  <si>
+    <t>SRR8423905</t>
+  </si>
+  <si>
+    <t>SRR8423891</t>
+  </si>
+  <si>
+    <t>SRR8423903</t>
+  </si>
+  <si>
+    <t>SRR8423874</t>
+  </si>
+  <si>
+    <t>SRR8423892</t>
+  </si>
+  <si>
+    <t>SRR8423907</t>
+  </si>
+  <si>
+    <t>SRR8423879</t>
+  </si>
+  <si>
+    <t>SRR8423881</t>
+  </si>
+  <si>
+    <t>SRR8423863</t>
+  </si>
+  <si>
+    <t>SRR8423889</t>
+  </si>
+  <si>
+    <t>SRR8423824</t>
+  </si>
+  <si>
+    <t>SRR8423894</t>
+  </si>
+  <si>
+    <t>SRR8423890</t>
+  </si>
+  <si>
+    <t>SRR8423909</t>
+  </si>
+  <si>
+    <t>SRR8423896</t>
+  </si>
+  <si>
+    <t>SRR8423884</t>
+  </si>
+  <si>
+    <t>SRR8423857</t>
+  </si>
+  <si>
+    <t>SRR8423873</t>
+  </si>
+  <si>
+    <t>SRR8423887</t>
+  </si>
+  <si>
+    <t>SRR8423876</t>
+  </si>
+  <si>
+    <t>SRR8423908</t>
+  </si>
+  <si>
+    <t>SRR8423821</t>
+  </si>
+  <si>
+    <t>SRR8423898</t>
+  </si>
+  <si>
+    <t>SRR8423900</t>
+  </si>
+  <si>
+    <t>SRR8423878</t>
+  </si>
+  <si>
+    <t>SRR8423899</t>
+  </si>
+  <si>
+    <t>SRR8423888</t>
+  </si>
+  <si>
+    <t>SRR8423797</t>
+  </si>
+  <si>
+    <t>SRR8423897</t>
+  </si>
+  <si>
+    <t>SRR8423895</t>
+  </si>
+  <si>
+    <t>SRR8423862</t>
+  </si>
+  <si>
+    <t>SRR8423902</t>
+  </si>
+  <si>
+    <t>SRR8423865</t>
+  </si>
+  <si>
+    <t>SRR8423834</t>
+  </si>
+  <si>
+    <t>SRR8423906</t>
+  </si>
+  <si>
+    <t>SRR8423875</t>
+  </si>
+  <si>
+    <t>SRR8423904</t>
+  </si>
+  <si>
+    <t>SRR8423886</t>
+  </si>
+  <si>
+    <t>SRR8423882</t>
+  </si>
+  <si>
+    <t>SRR8423901</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1094,12 +1238,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1273,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1137,10 +1281,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B3">
-        <v>97249</v>
+        <v>108455</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1148,10 +1292,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>1653</v>
+        <v>97249</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1159,10 +1303,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>258794</v>
+        <v>1653</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1170,10 +1314,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6">
-        <v>121846</v>
+        <v>258794</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1181,10 +1325,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>121846</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1192,10 +1336,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>114730</v>
+        <v>211903</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1203,10 +1347,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>261720</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1214,10 +1358,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>114730</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1225,10 +1369,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>951233</v>
+        <v>119611</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1236,10 +1380,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>1490191</v>
+        <v>1459396</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1247,10 +1391,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1369757</v>
+        <v>951233</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1258,10 +1402,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>147238</v>
+        <v>1490191</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -1269,10 +1413,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>143700</v>
+        <v>1369757</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1280,10 +1424,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>29323</v>
+        <v>147238</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1291,10 +1435,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B17">
-        <v>185108</v>
+        <v>143700</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1302,10 +1446,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>1613157</v>
+        <v>29323</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -1313,32 +1457,32 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>13537348</v>
+        <v>185108</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B20">
-        <v>11305252</v>
+        <v>1613157</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>9873015</v>
+        <v>13537348</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1346,10 +1490,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B22">
-        <v>9374518</v>
+        <v>11305252</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1357,10 +1501,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>15399680</v>
+        <v>9873015</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1368,10 +1512,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>9374518</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1379,10 +1523,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>12672547</v>
+        <v>15399680</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1390,10 +1534,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B26">
-        <v>14836573</v>
+        <v>19915070</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1401,10 +1545,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>11039286</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1412,10 +1556,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>13488303</v>
+        <v>12672547</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1423,10 +1567,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B29">
-        <v>20515178</v>
+        <v>11986897</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1434,10 +1578,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>12975096</v>
+        <v>14836573</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1445,10 +1589,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>13794276</v>
+        <v>9833029</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1456,10 +1600,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>2979920</v>
+        <v>13488303</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1467,10 +1611,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>20515178</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1478,10 +1622,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>26039122</v>
+        <v>12975096</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1489,10 +1633,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B35">
-        <v>18898195</v>
+        <v>13794276</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1500,10 +1644,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B36">
-        <v>14027792</v>
+        <v>18010530</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1511,10 +1655,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>28063231</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1522,32 +1666,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>26039122</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="B39">
-        <v>119558</v>
+        <v>17720066</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B40">
-        <v>12264113</v>
+        <v>18898195</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1555,10 +1699,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B41">
-        <v>9539568</v>
+        <v>14027792</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1566,10 +1710,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B42">
-        <v>11595236</v>
+        <v>20016455</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1577,21 +1721,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>14272314</v>
+        <v>104614</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>122979</v>
+        <v>119558</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1599,21 +1743,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>12587</v>
+        <v>12264113</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>13031727</v>
+        <v>9539568</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1621,10 +1765,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B47">
-        <v>300981</v>
+        <v>11595236</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1632,10 +1776,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B48">
-        <v>921553</v>
+        <v>14272314</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1643,32 +1787,32 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B49">
-        <v>10678846</v>
+        <v>122979</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>15955302</v>
+        <v>12587</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>16187888</v>
+        <v>13031727</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1676,10 +1820,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>15571061</v>
+        <v>300981</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1687,10 +1831,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>921553</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1698,10 +1842,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>466603</v>
+        <v>10678846</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1709,10 +1853,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>14245489</v>
+        <v>15955302</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1720,54 +1864,54 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>115191</v>
+        <v>16187888</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>97890</v>
+        <v>15571061</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>14855966</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B59">
-        <v>208897</v>
+        <v>466603</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>14245489</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1775,21 +1919,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>115191</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B62">
-        <v>194866</v>
+        <v>201602</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1797,10 +1941,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B63">
-        <v>718</v>
+        <v>97890</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1808,32 +1952,32 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>20863983</v>
+        <v>133854</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>161675</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B66">
-        <v>173420</v>
+        <v>149809</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1841,10 +1985,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B67">
-        <v>173365</v>
+        <v>208897</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1852,10 +1996,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B68">
-        <v>130294</v>
+        <v>216386</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1863,32 +2007,32 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>13456413</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>14179351</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>169550</v>
+        <v>194866</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1896,19 +2040,547 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72">
+        <v>718</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>20863983</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74">
+        <v>17109238</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>14084641</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76">
+        <v>16305228</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77">
+        <v>17899271</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78">
+        <v>22275436</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79">
+        <v>1326845</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>764657</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82">
+        <v>175017</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>145708</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84">
+        <v>139661</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85">
+        <v>20240060</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>6845865</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87">
+        <v>13668744</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88">
+        <v>14147968</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89">
+        <v>183712</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90">
+        <v>175829</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91">
+        <v>172378</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>187223</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>108926</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94">
+        <v>146692</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95">
+        <v>158588</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96">
+        <v>145661</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>186246</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98">
+        <v>119946</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>205318</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100">
+        <v>184862</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
+        <v>1112965</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102">
+        <v>972280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>984088</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104">
+        <v>888371</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105">
+        <v>1279222</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106">
+        <v>1050684</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107">
+        <v>1272635</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108">
+        <v>1132226</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109">
+        <v>1174312</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110">
+        <v>1197633</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111">
+        <v>96533</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>98</v>
+      </c>
+      <c r="B112">
+        <v>169524</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113">
+        <v>136907</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114">
+        <v>173420</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115">
+        <v>173365</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116">
+        <v>130294</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117">
+        <v>156235</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118">
+        <v>131060</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119">
+        <v>169550</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>65</v>
       </c>
-      <c r="B72">
+      <c r="B120">
         <v>185600</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C120" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
-    <sortCondition ref="A2:A72"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
+    <sortCondition ref="A2:A120"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Basepaws_Notes/Read_QC/PRJNA513845-eDNA/DADA2/Cutadapt-filtered_read_counts-with_sequencer.xlsx
+++ b/Basepaws_Notes/Read_QC/PRJNA513845-eDNA/DADA2/Cutadapt-filtered_read_counts-with_sequencer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\eDNA\PRJNA513845-eDNA\DADA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B04FBF-6738-40F8-8DA9-6157F2D43136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDD15FE-E3E1-4509-A0C5-375E3D4FD689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="2400" windowWidth="22260" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="126">
   <si>
     <t>Sample</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>SRR8423901</t>
+  </si>
+  <si>
+    <t>SRR8423815</t>
   </si>
 </sst>
 </file>
@@ -1239,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,21 +1482,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B21">
-        <v>13537348</v>
+        <v>1403665</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22">
-        <v>11305252</v>
+        <v>13537348</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1501,10 +1504,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B23">
-        <v>9873015</v>
+        <v>11305252</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1512,10 +1515,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>9374518</v>
+        <v>9873015</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1523,10 +1526,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>15399680</v>
+        <v>9374518</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1534,10 +1537,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>19915070</v>
+        <v>15399680</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1545,10 +1548,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B27">
-        <v>11039286</v>
+        <v>19915070</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1556,10 +1559,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B28">
-        <v>12672547</v>
+        <v>11039286</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1567,10 +1570,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>11986897</v>
+        <v>12672547</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1578,10 +1581,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="B30">
-        <v>14836573</v>
+        <v>11986897</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1589,10 +1592,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>9833029</v>
+        <v>14836573</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1600,10 +1603,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>13488303</v>
+        <v>9833029</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1611,10 +1614,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>20515178</v>
+        <v>13488303</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1622,10 +1625,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>12975096</v>
+        <v>20515178</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1633,10 +1636,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>13794276</v>
+        <v>12975096</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1644,10 +1647,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B36">
-        <v>18010530</v>
+        <v>13794276</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1655,10 +1658,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B37">
-        <v>28063231</v>
+        <v>18010530</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1666,10 +1669,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>26039122</v>
+        <v>28063231</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1677,10 +1680,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>17720066</v>
+        <v>26039122</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1688,10 +1691,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B40">
-        <v>18898195</v>
+        <v>17720066</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1699,10 +1702,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>14027792</v>
+        <v>18898195</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1710,10 +1713,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B42">
-        <v>20016455</v>
+        <v>14027792</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1721,21 +1724,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B43">
-        <v>104614</v>
+        <v>20016455</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B44">
-        <v>119558</v>
+        <v>104614</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1743,21 +1746,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>12264113</v>
+        <v>119558</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>9539568</v>
+        <v>12264113</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1765,10 +1768,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>11595236</v>
+        <v>9539568</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1776,10 +1779,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B48">
-        <v>14272314</v>
+        <v>11595236</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1787,21 +1790,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B49">
-        <v>122979</v>
+        <v>14272314</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B50">
-        <v>12587</v>
+        <v>122979</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1809,21 +1812,21 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>13031727</v>
+        <v>12587</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B52">
-        <v>300981</v>
+        <v>13031727</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1831,10 +1834,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>921553</v>
+        <v>300981</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1842,10 +1845,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B54">
-        <v>10678846</v>
+        <v>921553</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1853,10 +1856,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>15955302</v>
+        <v>10678846</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1864,10 +1867,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B56">
-        <v>16187888</v>
+        <v>15955302</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1875,10 +1878,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>15571061</v>
+        <v>16187888</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1886,10 +1889,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>14855966</v>
+        <v>15571061</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1897,10 +1900,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B59">
-        <v>466603</v>
+        <v>14855966</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1908,10 +1911,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>14245489</v>
+        <v>466603</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1919,21 +1922,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B61">
-        <v>115191</v>
+        <v>14245489</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>201602</v>
+        <v>115191</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1941,10 +1944,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B63">
-        <v>97890</v>
+        <v>201602</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1952,10 +1955,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>133854</v>
+        <v>97890</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -1963,10 +1966,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="B65">
-        <v>161675</v>
+        <v>133854</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1974,10 +1977,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B66">
-        <v>149809</v>
+        <v>161675</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1985,10 +1988,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B67">
-        <v>208897</v>
+        <v>149809</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1996,10 +1999,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="B68">
-        <v>216386</v>
+        <v>208897</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -2007,21 +2010,21 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B69">
-        <v>13456413</v>
+        <v>216386</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>14179351</v>
+        <v>13456413</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -2029,21 +2032,21 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <v>194866</v>
+        <v>14179351</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>718</v>
+        <v>194866</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -2051,21 +2054,21 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B73">
-        <v>20863983</v>
+        <v>718</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>17109238</v>
+        <v>20863983</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -2073,10 +2076,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B75">
-        <v>14084641</v>
+        <v>17109238</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -2084,10 +2087,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>16305228</v>
+        <v>14084641</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -2095,10 +2098,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B77">
-        <v>17899271</v>
+        <v>16305228</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -2106,10 +2109,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>22275436</v>
+        <v>17899271</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -2117,21 +2120,21 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B79">
-        <v>1326845</v>
+        <v>22275436</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B80">
-        <v>764657</v>
+        <v>1326845</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -2139,10 +2142,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>764657</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -2150,10 +2153,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B82">
-        <v>175017</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -2161,10 +2164,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>145708</v>
+        <v>175017</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -2172,10 +2175,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B84">
-        <v>139661</v>
+        <v>145708</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -2183,21 +2186,21 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>20240060</v>
+        <v>139661</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B86">
-        <v>6845865</v>
+        <v>20240060</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2205,10 +2208,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>13668744</v>
+        <v>6845865</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2216,10 +2219,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B88">
-        <v>14147968</v>
+        <v>13668744</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2227,21 +2230,21 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B89">
-        <v>183712</v>
+        <v>14147968</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B90">
-        <v>175829</v>
+        <v>183712</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -2249,10 +2252,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B91">
-        <v>172378</v>
+        <v>175829</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -2260,10 +2263,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B92">
-        <v>187223</v>
+        <v>172378</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -2271,10 +2274,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>108926</v>
+        <v>187223</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -2282,10 +2285,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>146692</v>
+        <v>108926</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -2293,10 +2296,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B95">
-        <v>158588</v>
+        <v>146692</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -2304,10 +2307,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B96">
-        <v>145661</v>
+        <v>158588</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -2315,10 +2318,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B97">
-        <v>186246</v>
+        <v>145661</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -2326,10 +2329,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>119946</v>
+        <v>186246</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -2337,10 +2340,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B99">
-        <v>205318</v>
+        <v>119946</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -2348,10 +2351,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>184862</v>
+        <v>205318</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2359,10 +2362,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B101">
-        <v>1112965</v>
+        <v>184862</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -2370,10 +2373,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>972280</v>
+        <v>1112965</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -2381,10 +2384,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>984088</v>
+        <v>972280</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -2392,10 +2395,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>888371</v>
+        <v>984088</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -2403,10 +2406,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B105">
-        <v>1279222</v>
+        <v>888371</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -2414,10 +2417,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B106">
-        <v>1050684</v>
+        <v>1279222</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -2425,10 +2428,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B107">
-        <v>1272635</v>
+        <v>1050684</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -2436,10 +2439,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B108">
-        <v>1132226</v>
+        <v>1272635</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -2447,10 +2450,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B109">
-        <v>1174312</v>
+        <v>1132226</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -2458,10 +2461,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B110">
-        <v>1197633</v>
+        <v>1174312</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -2469,10 +2472,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B111">
-        <v>96533</v>
+        <v>1197633</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -2480,10 +2483,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B112">
-        <v>169524</v>
+        <v>96533</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -2491,10 +2494,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B113">
-        <v>136907</v>
+        <v>169524</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -2502,10 +2505,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B114">
-        <v>173420</v>
+        <v>136907</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -2513,10 +2516,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B115">
-        <v>173365</v>
+        <v>173420</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -2524,10 +2527,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B116">
-        <v>130294</v>
+        <v>173365</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -2535,10 +2538,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B117">
-        <v>156235</v>
+        <v>130294</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -2546,10 +2549,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B118">
-        <v>131060</v>
+        <v>156235</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -2557,10 +2560,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B119">
-        <v>169550</v>
+        <v>131060</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -2568,19 +2571,30 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120">
+        <v>169550</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>65</v>
       </c>
-      <c r="B120">
+      <c r="B121">
         <v>185600</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
-    <sortCondition ref="A2:A120"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
+    <sortCondition ref="A3:A121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
